--- a/metadata/Papio-Genomes_JR_120720_MR-CR-KM_geoloc.xlsx
+++ b/metadata/Papio-Genomes_JR_120720_MR-CR-KM_geoloc.xlsx
@@ -527,14 +527,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SDSU Captive Wildlife Research Facility, Brookings County, South Dakota, United States</t>
+          <t>German Captive soldiers, Գյումրի, Ախուրյանի տարածաշրջան, Շիրակի մարզ, Հայաստան</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>-96.79328015199039</v>
+        <v>43.83697905244566</v>
       </c>
       <c r="K2" t="n">
-        <v>44.3340306</v>
+        <v>40.77850025</v>
       </c>
     </row>
     <row r="3">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Tarangire, Dar es Salaam, Coastal Zone, 34588 DSM, Tanzania</t>
+          <t>Tarangire, Kawe, Dar es Salaam, Coastal Zone, 34588 DSM, Tanzania</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Tarangire, Dar es Salaam, Coastal Zone, 34588 DSM, Tanzania</t>
+          <t>Tarangire, Kawe, Dar es Salaam, Coastal Zone, 34588 DSM, Tanzania</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Tarangire, Dar es Salaam, Coastal Zone, 34588 DSM, Tanzania</t>
+          <t>Tarangire, Kawe, Dar es Salaam, Coastal Zone, 34588 DSM, Tanzania</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Tarangire, Dar es Salaam, Coastal Zone, 34588 DSM, Tanzania</t>
+          <t>Tarangire, Kawe, Dar es Salaam, Coastal Zone, 34588 DSM, Tanzania</t>
         </is>
       </c>
       <c r="J50" t="n">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Tarangire, Dar es Salaam, Coastal Zone, 34588 DSM, Tanzania</t>
+          <t>Tarangire, Kawe, Dar es Salaam, Coastal Zone, 34588 DSM, Tanzania</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Tarangire, Dar es Salaam, Coastal Zone, 34588 DSM, Tanzania</t>
+          <t>Tarangire, Kawe, Dar es Salaam, Coastal Zone, 34588 DSM, Tanzania</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Tarangire, Dar es Salaam, Coastal Zone, 34588 DSM, Tanzania</t>
+          <t>Tarangire, Kawe, Dar es Salaam, Coastal Zone, 34588 DSM, Tanzania</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -5407,14 +5407,14 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Tansania, Monduli, Arusha, Northern Zone, Tanzania</t>
+          <t>Muft Issa Shaaban Simba Mosque, Old Shinyanga Road, Shinyanga, Shinyanga Urban, Shinyanga, Lake Zone, 578, Tanzania</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>36.46530003540425</v>
+        <v>33.4165835</v>
       </c>
       <c r="K98" t="n">
-        <v>-2.8726901</v>
+        <v>-3.6653278</v>
       </c>
     </row>
     <row r="99">
@@ -11729,14 +11729,14 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>SDSU Captive Wildlife Research Facility, Brookings County, South Dakota, United States</t>
+          <t>German Captive soldiers, Գյումրի, Ախուրյանի տարածաշրջան, Շիրակի մարզ, Հայաստան</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>-96.79328015199039</v>
+        <v>43.83697905244566</v>
       </c>
       <c r="K222" t="n">
-        <v>44.3340306</v>
+        <v>40.77850025</v>
       </c>
     </row>
     <row r="223">
@@ -11780,14 +11780,14 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>SDSU Captive Wildlife Research Facility, Brookings County, South Dakota, United States</t>
+          <t>German Captive soldiers, Գյումրի, Ախուրյանի տարածաշրջան, Շիրակի մարզ, Հայաստան</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>-96.79328015199039</v>
+        <v>43.83697905244566</v>
       </c>
       <c r="K223" t="n">
-        <v>44.3340306</v>
+        <v>40.77850025</v>
       </c>
     </row>
     <row r="224">
@@ -11831,14 +11831,14 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>SDSU Captive Wildlife Research Facility, Brookings County, South Dakota, United States</t>
+          <t>German Captive soldiers, Գյումրի, Ախուրյանի տարածաշրջան, Շիրակի մարզ, Հայաստան</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>-96.79328015199039</v>
+        <v>43.83697905244566</v>
       </c>
       <c r="K224" t="n">
-        <v>44.3340306</v>
+        <v>40.77850025</v>
       </c>
     </row>
     <row r="225">
@@ -11882,14 +11882,14 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>SDSU Captive Wildlife Research Facility, Brookings County, South Dakota, United States</t>
+          <t>German Captive soldiers, Գյումրի, Ախուրյանի տարածաշրջան, Շիրակի մարզ, Հայաստան</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>-96.79328015199039</v>
+        <v>43.83697905244566</v>
       </c>
       <c r="K225" t="n">
-        <v>44.3340306</v>
+        <v>40.77850025</v>
       </c>
     </row>
     <row r="226">
@@ -12286,14 +12286,14 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>SDSU Captive Wildlife Research Facility, Brookings County, South Dakota, United States</t>
+          <t>German Captive soldiers, Գյումրի, Ախուրյանի տարածաշրջան, Շիրակի մարզ, Հայաստան</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>-96.79328015199039</v>
+        <v>43.83697905244566</v>
       </c>
       <c r="K233" t="n">
-        <v>44.3340306</v>
+        <v>40.77850025</v>
       </c>
     </row>
     <row r="234">
@@ -12337,14 +12337,14 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>SDSU Captive Wildlife Research Facility, Brookings County, South Dakota, United States</t>
+          <t>German Captive soldiers, Գյումրի, Ախուրյանի տարածաշրջան, Շիրակի մարզ, Հայաստան</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>-96.79328015199039</v>
+        <v>43.83697905244566</v>
       </c>
       <c r="K234" t="n">
-        <v>44.3340306</v>
+        <v>40.77850025</v>
       </c>
     </row>
     <row r="235">
@@ -12388,14 +12388,14 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>SDSU Captive Wildlife Research Facility, Brookings County, South Dakota, United States</t>
+          <t>German Captive soldiers, Գյումրի, Ախուրյանի տարածաշրջան, Շիրակի մարզ, Հայաստան</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>-96.79328015199039</v>
+        <v>43.83697905244566</v>
       </c>
       <c r="K235" t="n">
-        <v>44.3340306</v>
+        <v>40.77850025</v>
       </c>
     </row>
   </sheetData>
